--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori1/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori1/42/correct_predictions_42.xlsx
@@ -1547,11 +1547,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1586,12 +1586,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori1/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori1/42/correct_predictions_42.xlsx
@@ -1547,11 +1547,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1586,12 +1586,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
